--- a/biology/Botanique/Portulaca/Portulaca.xlsx
+++ b/biology/Botanique/Portulaca/Portulaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Portulaca est un genre de plantes de la famille des Portulacaceae qui comprend à l'heure actuelle de 40 à 100 espèces, (probablement beaucoup plus).
 Le nom est une déformation, par métathèse, du latin porcacla ; cette plante ayant été donnée, dès l'antiquité, aux porcs. Le médecin Oribase en fit le synonyme de porcillagine herba. Parmi les noms vernaculaires de cette plante on trouve porcelaine et pourpier.
@@ -512,7 +524,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Portulaca amilis Speg.
@@ -579,7 +593,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux hybrides existent pour l'ornement.
 Ce sont généralement des hybrides de P. grandiflora, oleracea, umbraticola, villosa.
